--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -642,7 +642,8 @@
     <t>418: source value based on NEW PERSON - TITLE &gt; TITLE - NAME (200-8 &gt; 3.1-.01)</t>
   </si>
   <si>
-    <t>SStaff.SStaff.PositionTitle,Staff.Staff.PositionTitle</t>
+    <t>SStaff.SStaff.PositionTitle
+Staff.Staff.PositionTitle</t>
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
@@ -852,7 +853,8 @@
     <t>414: reference based on NEW PERSON - NAME (200-.01)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.StaffName,SStaff.SStaff.StaffName</t>
+    <t>SStaff.PrescribingProvider.StaffName
+SStaff.SStaff.StaffName</t>
   </si>
   <si>
     <t>.player</t>
@@ -1353,7 +1355,8 @@
     <t>384: source value based on NEW PERSON - OFFICE PHONE (200-.132)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.OfficePhone,SStaff.SStaff.OfficePhone</t>
+    <t>SStaff.PrescribingProvider.OfficePhone
+SStaff.SStaff.OfficePhone</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:va-work.use</t>
@@ -1467,7 +1470,8 @@
     <t>387: source value based on NEW PERSON - COMMERCIAL PHONE (200-.135)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.CommercialPhone,SStaff.SStaff.CommercialPhone</t>
+    <t>SStaff.PrescribingProvider.CommercialPhone
+SStaff.SStaff.CommercialPhone</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:va-commercial.use</t>
@@ -1509,7 +1513,8 @@
     <t>388: source value based on NEW PERSON - FAX NUMBER (200-.136)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.FaxNumber,SStaff.SStaff.FaxNumber</t>
+    <t>SStaff.PrescribingProvider.FaxNumber
+SStaff.SStaff.FaxNumber</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:va-fax.use</t>
@@ -1551,7 +1556,8 @@
     <t>389: source value based on NEW PERSON - VOICE PAGER (200-.137)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.VoicePager,SStaff.SStaff.VoicePager</t>
+    <t>SStaff.PrescribingProvider.VoicePager
+SStaff.SStaff.VoicePager</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:va-voice-pager.use</t>
@@ -1587,7 +1593,8 @@
     <t>390: source value based on NEW PERSON - DIGITAL PAGER (200-.138)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.DigitalPager,SStaff.SStaff.DigitalPager</t>
+    <t>SStaff.PrescribingProvider.DigitalPager
+SStaff.SStaff.DigitalPager</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:va-data-pager.use</t>
@@ -1626,7 +1633,8 @@
     <t>391: source value based on NEW PERSON - EMAIL ADDRESS (200-.151)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.EmailAddress,SStaff.SStaff.EmailAddress</t>
+    <t>SStaff.PrescribingProvider.EmailAddress
+SStaff.SStaff.EmailAddress</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:va-mail.use</t>
@@ -2157,7 +2165,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="135.61328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="61.3359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.83984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="73.27734375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="67.37109375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="166.7265625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitionerRole.xlsx
+++ b/docs/StructureDefinition-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
